--- a/medicine/Enfance/End_child_prostitution,_child_pornography_and_trafficking_of_children_for_sexual_purposes/End_child_prostitution,_child_pornography_and_trafficking_of_children_for_sexual_purposes.xlsx
+++ b/medicine/Enfance/End_child_prostitution,_child_pornography_and_trafficking_of_children_for_sexual_purposes/End_child_prostitution,_child_pornography_and_trafficking_of_children_for_sexual_purposes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">End child prostitution, child pornography and trafficking of children for sexual purposes (ECPAT), soit en français Mettre fin à la prostitution infantile, à la pédopornographie et au trafic d'enfants à des fins d'exploitation sexuelle est un réseau d'organisations et de personnes travaillant ensemble pour éliminer l'exploitation sexuelle des enfants à des fins commerciales[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">End child prostitution, child pornography and trafficking of children for sexual purposes (ECPAT), soit en français Mettre fin à la prostitution infantile, à la pédopornographie et au trafic d'enfants à des fins d'exploitation sexuelle est un réseau d'organisations et de personnes travaillant ensemble pour éliminer l'exploitation sexuelle des enfants à des fins commerciales.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">ECPAT International a son secrétariat à Bangkok, en Thaïlande. 81 groupes sont répartis dans 74 pays. L'organisation combat notamment le tourisme sexuel impliquant des enfants, le trafic d'enfants à des fins d'exploitation sexuelle, la pornographie enfantine sur Internet, elle soutient les enfants à risque et fait campagne pour le renforcement des législations. Elle s'est vu attribuer en 1998 le prix Rafto.
 En 2006, elle a lancé en partenariat avec l'Unicef le « code de conduite pour la protection des enfants de l'exploitation sexuelle dans le tourisme et les voyages ».
